--- a/topic_split/topic_2.xlsx
+++ b/topic_split/topic_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>issue</t>
   </si>
@@ -22,131 +22,202 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[0.01061894 0.1127038  0.01239883 0.07044585 0.00982007 0.01103832
- 0.01777997 0.01346591 0.01447268 0.01571826 0.01396116 0.01362249
- 0.01754149 0.19850463 0.01491498 0.0143642  0.01178812 0.01549489
- 0.01475297 0.01685158 0.01397144 0.01354045 0.01374752 0.01672013
- 0.01616411]</t>
-  </si>
-  <si>
-    <t>[0.01276786 0.42851926 0.01421139 0.11483072 0.0115923  0.01295616
- 0.01953621 0.01537191 0.01630442 0.01810943 0.01583301 0.01550896
- 0.01904393 0.1012786  0.0169112  0.01657253 0.01381369 0.01760212
- 0.01675877 0.01887435 0.01570219 0.01554481 0.01547315 0.01899239
- 0.01789064]</t>
-  </si>
-  <si>
-    <t>[0.0105783  0.28055703 0.01221976 0.11202906 0.00973982 0.01091925
- 0.01701372 0.01318935 0.01409021 0.01520371 0.01356629 0.01329781
- 0.01678758 0.18913866 0.01455166 0.0139292  0.01162238 0.01513293
- 0.01423107 0.01612532 0.01361246 0.01317303 0.01340074 0.01608632
- 0.01548208]</t>
-  </si>
-  <si>
-    <t>[0.01088777 0.18923341 0.0126316  0.09679529 0.01003915 0.01125537
- 0.01768638 0.01362458 0.01459376 0.01579974 0.01405456 0.01377306
- 0.01747966 0.21355479 0.01503702 0.01446053 0.01199517 0.01562439
- 0.01479788 0.0168037  0.01411035 0.01365607 0.01388938 0.01674337
- 0.01613426]</t>
-  </si>
-  <si>
-    <t>[0.01329296 0.40086075 0.01485437 0.11516314 0.01209922 0.01352404
- 0.02051741 0.01608499 0.01709496 0.0189327  0.01658495 0.01624678
- 0.01998445 0.11044759 0.01770704 0.01733274 0.01441786 0.01842678
- 0.01754569 0.01977345 0.01643884 0.01625653 0.01618688 0.01986517
- 0.01876624]</t>
-  </si>
-  <si>
-    <t>[1.65384184e-308 1.00000000e+000 1.85411372e-308 1.94120252e-307
- 1.50480031e-308 1.68634042e-308 2.54541160e-308 2.01004798e-308
- 2.12471444e-308 2.32185063e-308 2.05824481e-308 2.01322646e-308
- 2.48891014e-308 1.42381736e-307 2.21440030e-308 2.12834663e-308
- 1.79344356e-308 2.30838545e-308 2.15681044e-308 2.42970402e-308
- 2.04898856e-308 2.00944146e-308 2.02033602e-308 2.44063289e-308
- 2.31304953e-308]</t>
-  </si>
-  <si>
-    <t>[1.65428851e-308 1.00000000e+000 1.85856089e-308 2.01937308e-307
- 1.50218537e-308 1.68545882e-308 2.54495307e-308 2.01092119e-308
- 2.12894728e-308 2.33401480e-308 2.06077413e-308 2.01876955e-308
- 2.49167909e-308 1.37847144e-307 2.21758887e-308 2.13526956e-308
- 1.79245782e-308 2.31385248e-308 2.15936030e-308 2.43684974e-308
- 2.05207720e-308 2.00951232e-308 2.01941247e-308 2.45318983e-308
- 2.32088249e-308]</t>
-  </si>
-  <si>
-    <t>[0.00956615 0.41761616 0.01116579 0.14145116 0.00888729 0.00987764
- 0.01496077 0.01183846 0.01270285 0.0134101  0.01212622 0.01202844
- 0.01487058 0.11601827 0.01294823 0.01236856 0.01046235 0.01341349
- 0.01263555 0.01415755 0.01228732 0.01175842 0.01207558 0.01411903
- 0.01375178]</t>
-  </si>
-  <si>
-    <t>[0.01132012 0.49983296 0.0124919  0.10353301 0.01023342 0.01146078
- 0.0171901  0.01357677 0.01432077 0.0159339  0.01394417 0.01361253
- 0.01671972 0.08369867 0.01495267 0.0145795  0.01221671 0.01558885
- 0.01472355 0.01658079 0.01379889 0.01369627 0.01361767 0.01670715
- 0.01566913]</t>
-  </si>
-  <si>
-    <t>[0.00834336 0.54972859 0.00957372 0.10848887 0.00766137 0.00857406
- 0.01315546 0.01029866 0.01099396 0.01188329 0.0105796  0.01040304
- 0.01295729 0.10475086 0.011342   0.01089326 0.00911528 0.01179898
- 0.01108541 0.01251716 0.01060416 0.01028282 0.01042594 0.01252742
- 0.01201542]</t>
-  </si>
-  <si>
-    <t>[0.00752755 0.6286682  0.00837211 0.09382105 0.0068215  0.00764618
- 0.01147321 0.00908328 0.00956728 0.01052797 0.00929426 0.00907444
- 0.01121498 0.06509397 0.01000224 0.00964303 0.0081391  0.01042941
- 0.00976272 0.01099487 0.00924595 0.00910448 0.00913357 0.01106359
- 0.01042981]</t>
-  </si>
-  <si>
-    <t>[0.01228782 0.19478634 0.01338052 0.08397918 0.01102453 0.01238761
- 0.01890945 0.01468712 0.01548336 0.01776099 0.01520464 0.01473466
- 0.01824671 0.09196022 0.0162446  0.0161516  0.01328042 0.01695281
- 0.01628517 0.01847466 0.01489907 0.01503542 0.0147208  0.01864874
- 0.01723405]</t>
-  </si>
-  <si>
-    <t>[1.64231139e-308 1.00000000e+000 1.88491895e-308 2.34279238e-307
- 1.51355489e-308 1.68563642e-308 2.54327026e-308 2.01273157e-308
- 2.14957450e-308 2.30364594e-308 2.06316620e-308 2.03823255e-308
- 2.51013809e-308 1.69337676e-307 2.20589908e-308 2.11993477e-308
- 1.78829620e-308 2.28977129e-308 2.15727076e-308 2.42000523e-308
- 2.07517085e-308 2.00748984e-308 2.04094546e-308 2.42135166e-308
- 2.33225632e-308]</t>
-  </si>
-  <si>
-    <t>[1.65850081e-308 1.00000000e+000 1.89408413e-308 2.46651665e-307
- 1.51880375e-308 1.69967774e-308 2.58021257e-308 2.03525790e-308
- 2.16814669e-308 2.34383985e-308 2.08654707e-308 2.05393789e-308
- 2.53974876e-308 1.64730812e-307 2.24013089e-308 2.14903686e-308
- 1.80497383e-308 2.33237326e-308 2.18095252e-308 2.45817299e-308
- 2.09036657e-308 2.02772001e-308 2.05401843e-308 2.46615753e-308
- 2.35921014e-308]</t>
-  </si>
-  <si>
-    <t>[1.65494826e-308 1.00000000e+000 1.88490253e-308 2.87591254e-307
- 1.51605407e-308 1.69399742e-308 2.55239200e-308 2.02168693e-308
- 2.14380558e-308 2.31332930e-308 2.06666122e-308 2.03073658e-308
- 2.52192335e-308 1.84753127e-307 2.21918419e-308 2.12466073e-308
- 1.79936395e-308 2.30721258e-308 2.16220831e-308 2.43127016e-308
- 2.07882620e-308 2.01599407e-308 2.05146027e-308 2.43679214e-308
- 2.33157578e-308]</t>
-  </si>
-  <si>
-    <t>[1.66270198e-308 1.00000000e+000 1.92200572e-308 2.20075184e-307
- 1.53559245e-308 1.71114986e-308 2.60675728e-308 2.05115253e-308
- 2.20069446e-308 2.35636724e-308 2.10795711e-308 2.08568628e-308
- 2.57336212e-308 1.86973152e-307 2.25100667e-308 2.16631809e-308
- 1.81581393e-308 2.33662675e-308 2.20521397e-308 2.47919670e-308
- 2.11989051e-308 2.04619355e-308 2.08016196e-308 2.47850490e-308
- 2.39404947e-308]</t>
+    <t xml:space="preserve">[PROD] Login Error Message Is Not Accurate
+## Issue
+Users receive the 'Invalid username or password' error, even when their account is not active. 
+## Steps to reproduce
+You need two GO user accounts (A1 and A2), and their passwords. One of the accounts should have admin permission (A1).
+1. Login to the goadmin page with the account A1, go to the users section, search the user account A2, and uncheck the 'Active' box
+2. Login to the go page with the account A2, and try to login with its credentials
+3. You will receive the 'Invalid username or password'*
+## Expected behaviour
+Display to the user a message saying "Your account is deactivated, contact the IM team at im@ifrc.org for more information."
+## Impact
+ We usually receive more than one message per week, of users trying multiple times to reset their passwords not successfully.
+## Severity
+They can not log in to GO.
+## Is there a workaround?
+They contact im@ifrc.org
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Profile &gt; Previous Events &gt; Past Events: Add the missing hazard icons
+## Task description
+The hazards in `Past Events` graph is missing hazard icons. Please look into this and add hazard icons for the available hazards
+## Link to replicate 
+https://go-web-ifrc.dev.datafriendlyspace.org/countries/14/profile/previous-events
+## Screenshot (UI design)
+&lt;img width="1309" alt="image" src="https://github.com/IFRCGo/go-web-app/assets/72339626/1c270914-cd90-403f-adc0-b8b1584a1e7f"&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] can't reset password with a username - even though it says I can
+## Issue
+I had to reset my password - so went to https://go.ifrc.org/recover-account
+My user is from the days when username is not the same as email address.  The screen says I should "Enter the email/username you used during registration" - so I did, however it gave me a message saying "That email is not associated with a user".
+I could reset the password fine if I put my email address in (it just meant I had to remember which email address I had registered with... I had a note of my username but not which email address it related to).
+Anyway, need to make sure the message onscreen matches what the user can actually do - either allow them to enter their username or remove reference to the username on the screen.
+Thanks
+## Impact
+People who registered prior to the change to username approach
+## Is there a workaround?
+If people figure out that email will work, then they can enter their email address
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] Different Disaster Type shown for same event
+## Issue
+In the Recent Operations overview on the country page of Iceland, you see the DREF operation for the Volcanic and seismic activity. In this overview it is labeled as Disaster Type = Earthquake. 
+When I click on the link and go to the Event page, it shows it is the Disaster Type Volcanic Eruption. 
+## Steps to reproduce
+- Go to page: https://go.ifrc.org/countries/83/operations &gt;&gt; See the list of operations.
+- Click on "Link" of the operation. &gt;&gt; See the info there.
+![image](https://github.com/IFRCGo/go-web-app/assets/705634/35b54280-56cf-424c-aa62-e2dd4017e9a1)
+![image](https://github.com/IFRCGo/go-web-app/assets/705634/98541a25-528c-43f9-bcf9-b1cb1be5026d)
+## Expected behaviour
+It should show the same Disaster Type
+## Related feature
+*Please cross-reference the build item to which this relates, if known/relevant*
+## Impact
+Looks like everyone sees this...
+## Severity
+Data shown on GO is inconsistent.
+## Is there a workaround?
+No.
+</t>
+  </si>
+  <si>
+    <t>"Is Pinned" feature not working for situation reports
+## Issue
+The [Ukraine appeal page](https://go.ifrc.org/emergencies/5854/reports) has a lot of reports. I have now only 4 reports marked as "Is Pinned", and they should be shown on top of the list. They do not.
+## Steps to reproduce
+See this page: https://go.ifrc.org/emergencies/5854/reports
+Also see the backend: https://goadmin.ifrc.org/en/admin/api/event/5854/change/
+## Expected behaviour
+Items that are marked as "Is Pinned" should be shown at the top of the list.
+Alternate feature: could we have a "sort-value" field that is used to sort the items in the list? Then you have more control over the order of the list.
+## Related feature
+None that I can find.
+## Impact
+All users.
+## Severity
+Not a blocking issue. 
+## Is there a workaround?
+Not that I'm aware off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] All operations table is not sorted by start date descending
+## Issue
+The table of [all operations/appeals](https://go.ifrc.org/appeals/all) isn't sorted descending by the start date. Maybe it's sorted by the latest change?
+## Steps to reproduce
+Navigate to https://go.ifrc.org/appeals/all and observe the sort order.
+![image](https://github.com/IFRCGo/go-frontend/assets/15220593/ec386c84-dfca-4a3b-8ccb-af8a38c4fec7)
+## Expected behaviour
+The table should be sorted descending by the start date like the [all emergencies](https://go.ifrc.org/emergencies/all) table.
+## Impact
+Minor impact for a relatively small number of users.
+## Severity
+Minimal impact, might cause some users not finding the latest operations easily.
+## Is there a workaround?
+Users can set the sort order by start date from the table headers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double scrolbar appearing in Local Units form in Firefox browser
+## Description 
+- 2 scroll bars are appearing in the Local Units form while accessing it from Firefox browser
+- Link to replicate: https://go-stage.ifrc.org/countries/14/ns-overview/context-and-structure
+### Screenshot
+![Image](https://github.com/IFRCGo/go-web-app/assets/72339626/815d4683-c0a6-4d7f-8294-90dd7a6f81eb)
+</t>
+  </si>
+  <si>
+    <t>[PROD] Emergency page blank (doesn't have emergency name or country name etc.) even though those details are there in back end
+## Issue
+https://go.ifrc.org/emergencies/6895/ is the emergency page for Iran floods MDRIR014.  This emergency is set to **visibility = IFRC and NS**.
+Currently for both public (not logged in users) and _some RC users_ the page is completely blank for Emergency Details and Reports/Documents tabs - doesn't even have an emergency name or country on the page, and doesn't show a notification of any kind re not authorised.
+![image](https://github.com/user-attachments/assets/654ba820-e4dd-4e5f-b4cf-2945f87a529f)
+I can see that this is because the API call to https://goadmin.ifrc.org/api/v2/event/6895/ is returning 404 not found.
+However it is showing surge data on the Surge tab.
+IFRC users (e.g. 11560, from the region) can apparently see the data as per this screenshot:
+_note I checked and this screenshot only shows data that's available in public appeal docs, so it's fine for me to put the screenshot here in public ;) _
+![image](https://github.com/user-attachments/assets/092b4a3c-8e91-47a5-8277-0b4357bfb16f)
+This is the emergency as linked from the [Iran Country page](https://go.ifrc.org/countries/203/ongoing-activities/emergencies).
+![image](https://github.com/user-attachments/assets/046797c9-0913-4a41-8654-043d0fda2f56)
+## Steps to reproduce
+Go to https://go.ifrc.org/emergencies/6895/ as a public user or an RCRC user.
+## Expected behaviour
+There are ~~three~~ two issues here:
+~~1. if the user fits within the criteria to see a limited visibility page then they should be able to see the information.  In this case as an IFRC user then I believe that I (and other IFRC users) should be able to see the information on the emergency page (as it is set to visibility = _IFRC+NS)~~ _deleted as this is working fine_
+2. conversely, if the user is _not_ within the criteria that are permitted to see a restricted visibility emergency page - e.g. because they are not logged in, or not from a relevant NS - then I believe they should see a notification onscreen about that.
+3. need to check which parts of the page are restricted - currently the Surge tab is still visible publicly even though I believe that specific tab is one that should not show.
+## Related feature
+@tovari to link the relevant github tickets that tell us which parts of a restricted-visibility emergency should be visible to whom.
+FYI the Appeals documents are public at https://www.ifrc.org/appeals?date_from=&amp;date_to=&amp;search_terms=&amp;search_terms=&amp;appeal_code=MDRIR014&amp;search_terms=&amp;text= so I personally don't think they need to be restricted on GO - but I am not sure of the actual original GO specs here.
+THANKS for investigating.</t>
+  </si>
+  <si>
+    <t>[PROD] change password screen shows "toggle theme overlay" text
+## Issue
+Go Admin site, if I click on change password, I get to https://goadmin.ifrc.org/en/admin/password_change/
+That screen works fine, but has an unexpected grey overlay with text that talks about "Toggle theme:  current theme (auto)" etc. - which I don't think should be there?
+![Image](https://github.com/user-attachments/assets/3bafc347-496d-49a7-93b3-6998960bb78d)
+## Severity
+Cosmetic issue
+## Is there a workaround?
+Cosmetic issue only, can still do what you need to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiving more notifications than expected
+## Issue
+*In my account page, I've set that I only want notifications for the Europe region. However, I also get notifications from new emergency-pages from other regions. *
+## Steps to reproduce
+*Check your notifications settings and check your mailbox.*
+My settings are:
+![Image](https://github.com/user-attachments/assets/47b5e96f-255f-4f29-9426-f5a3853ee246)
+But I still get: 
+![Image](https://github.com/user-attachments/assets/36e7e296-3fc3-4cce-b3ea-a1395b0182b6)
+## Expected behaviour
+*Match the notifications I have with the settings I've set.*
+## Impact
+*All people who have limited the notifications settings in GO/*
+## Severity
+*Not a blocking issue. But it does affect ones mailbox ...*
+## Is there a workaround?
+*Not that I know off, except ignoring my mailbox.*
+</t>
+  </si>
+  <si>
+    <t>[PROD] intermittent issues "Failed to fetch data" due to CORS error
+## Issue
+I am using the same computer+browser+internet connection that I generally use to access GO, but today I have been getting intermittent "Failed to fetch data" errors even when I know there is data there - e.g. on the home page - highlighted emergencies, key figures etc.  I am logged in.
+I turned on dev tools and can see an error message I've never seen before:
+&gt; Access to fetch at 'https://goadmin.ifrc.org/api/v2/event/?is_featured=true' from origin 'https://go.ifrc.org' has been blocked by CORS policy: Response to preflight request doesn't pass access control check: No 'Access-Control-Allow-Origin' header is present on the requested resource. If an opaque response serves your needs, set the request's mode to 'no-cors' to fetch the resource with CORS disabled.
+The other odd thing I can see is that the user name in top right corner says "anonymous" - normally it should either have my name or else say "Log in" if I'm not logged in.  See screenshot.
+Having refreshed a few times I can see that normally when I'm first go to go.ifrc.org it shows anonymous for just a short moment before displaying my name.  So it seems in this case things got stuck somewhere?
+I don't think it's my internet connection as I'm on fast broadband.
+![Image](https://github.com/user-attachments/assets/f86449dc-30a2-4285-bafc-8f01c985643e)
+## Steps to reproduce
+This issue is intermittent - I've refreshed again and all is fine - but as it's happened more than once I figured it's worth investigating.
+## Expected behaviour
+Page should load fine with all data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Staging - T&amp;C page] Direct the link in the `User Registration` section to the respective instance.
+## Issue
+The link in the `User Registration` section of the Terms and Conditions page directs the user to the Register page of the Production instance. 
+## URL
+https://go-stage.ifrc.org/terms-and-conditions
+## Steps to reproduce
+1. Go to the Staging instance
+2. Go to the Terms and Conditions page from the footer
+3. Click `this link` in `User Registration` section of the page
+&lt;img width="664" alt="Image" src="https://github.com/user-attachments/assets/ac580c65-26b3-42ee-80e2-df1dbd7bdbba" /&gt;
+## Expected behaviour
+Staging should point to Staging. Production should point to Production
+## Criticality/Urgency
+Low
+</t>
   </si>
 </sst>
 </file>
@@ -504,197 +575,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>17</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>54</v>
-      </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>91</v>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>110</v>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>115</v>
-      </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>116</v>
-      </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>117</v>
-      </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>125</v>
-      </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>127</v>
-      </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>134</v>
-      </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>136</v>
-      </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>137</v>
-      </c>
       <c r="B13">
         <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>156</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>196</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>202</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
